--- a/相关/测试记录/20180822.xlsx
+++ b/相关/测试记录/20180822.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="11505"/>
+    <workbookView windowWidth="28455" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
   <si>
     <t>序号</t>
   </si>
@@ -547,7 +547,7 @@
     <t>包裹-退货列表</t>
   </si>
   <si>
-    <t>脏数据</t>
+    <t>二次扩展功能：脏数据</t>
   </si>
   <si>
     <t>是否处理栏 提示有问题需要更改</t>
@@ -750,18 +750,21 @@
     <t>见117条</t>
   </si>
   <si>
+    <t>异常件列表√</t>
+  </si>
+  <si>
+    <t>脏数据</t>
+  </si>
+  <si>
+    <t>处理状态的  状态有误  不理解是什么意思  是处理中的意思咩？</t>
+  </si>
+  <si>
     <t>异常件列表</t>
   </si>
   <si>
-    <t>处理状态的  状态有误  不理解是什么意思  是处理中的意思咩？</t>
-  </si>
-  <si>
     <t>提交后的备注不显示</t>
   </si>
   <si>
-    <t>异常件列表√</t>
-  </si>
-  <si>
     <t>展示没问题</t>
   </si>
   <si>
@@ -792,7 +795,7 @@
     <t>如果此运单为转运下单生成的运单号【物品】栏需要显示  包裹号以及物品信息</t>
   </si>
   <si>
-    <t>包裹-未入库包裹-编辑</t>
+    <t>包裹-未入库包裹-编辑√</t>
   </si>
   <si>
     <t>包裹追踪号修改之后后台报错</t>
@@ -963,6 +966,9 @@
     <t>清关批次</t>
   </si>
   <si>
+    <t>接口变更：提交报错</t>
+  </si>
+  <si>
     <t>左上角logo应该设置为客户信息需要添加链接  无法点击 鼠标移动过去 也没有任何改变</t>
   </si>
   <si>
@@ -1047,9 +1053,6 @@
     <t>改成  向左箭头后面加返回    《返回</t>
   </si>
   <si>
-    <t>包裹-已入库-详情</t>
-  </si>
-  <si>
     <t>缺少返回键</t>
   </si>
   <si>
@@ -1098,7 +1101,7 @@
     <t>可用积分去掉</t>
   </si>
   <si>
-    <t>运单-全部运单-详情</t>
+    <t>运单-全部运单-详情√</t>
   </si>
   <si>
     <t>我这里没有这个问题</t>
@@ -1110,7 +1113,7 @@
     <t>所有页面的保存收发件人</t>
   </si>
   <si>
-    <t>我这里查到了</t>
+    <t>之前说的是选择了收发件人之后修改收发件人信息，那么执行保存操作（未选择收发件人直接执行提交的时候没有执行保存操作）。我这里选择了收发件人之后修改收发件人信息，保存操作都是执行了的。</t>
   </si>
   <si>
     <t>默认状态为保存  但是在收发件人那看不到新添加的收发件人             晚上测试的运单→</t>
@@ -1140,16 +1143,22 @@
     <t>客户端前台下单重量跟总计不显示  管理前台下单的重量跟总计就显示</t>
   </si>
   <si>
+    <t>运单-已发货-追踪√</t>
+  </si>
+  <si>
+    <t>追踪的滚动条添加有问题  滚动条应该添加在追踪下拉框内而不是页面上  现在拖动滚动条整个页面滚动 下拉框内的内容没有改变</t>
+  </si>
+  <si>
     <t>运单-已发货-追踪</t>
   </si>
   <si>
-    <t>追踪的滚动条添加有问题  滚动条应该添加在追踪下拉框内而不是页面上  现在拖动滚动条整个页面滚动 下拉框内的内容没有改变</t>
+    <t>派送单号跟派送快递公司需要后台返回</t>
   </si>
   <si>
     <t>点击追踪后  内容需要显示  运单号以及派送快递公司名称及单号</t>
   </si>
   <si>
-    <t>左上角logo</t>
+    <t>左上角logo√</t>
   </si>
   <si>
     <t>扩展功能修改</t>
@@ -1162,6 +1171,9 @@
   </si>
   <si>
     <t>自动生成靠左对齐</t>
+  </si>
+  <si>
+    <t>咱们页面上有待处理的选项，原本网站页面上没有才要加这个</t>
   </si>
   <si>
     <t>点击提交后的运单创建成功页面需要在【面单打印】的后面添加【待处理运单】</t>
@@ -1201,7 +1213,7 @@
     </r>
   </si>
   <si>
-    <t>见199</t>
+    <t>点击详情提示错误见199，返回列表本来就应该返回列表，原本网站返回的是创建成功页面本就是错误的。我们页面上方设置有返回列表的链接。</t>
   </si>
   <si>
     <t>在线下单成功后 提示页面点击详情 然后提示错误           报错后的页面        应该跳转到详情页 但目前还是显示在在线下单页面但是无法进行下单也没有任何信息。详情页下方需要有按钮【返回列表】  点击后需要返回到提示运单创建成功页面</t>
@@ -1210,7 +1222,7 @@
     <t>在线下单成功后点击继续下单 页面上的身份证照片栏无法上传</t>
   </si>
   <si>
-    <t>关于列表内身份证状态的显示问题</t>
+    <t>关于列表内身份证状态的显示问题√</t>
   </si>
   <si>
     <t>前台显示有身份证照骗 但是点开详情、编辑查看不到身份证  管理前台显示没有身份证照骗</t>
@@ -1219,13 +1231,10 @@
     <t>物品栏 如果此运单的来源是  直接转运/包裹转运 图片圈圈位置应该显示包裹追踪号</t>
   </si>
   <si>
-    <t>包裹-已到库</t>
+    <t>包裹-已到库√</t>
   </si>
   <si>
     <t>已到库包裹点击【提交运单】后的页面增值服务输入框位置没有变更</t>
-  </si>
-  <si>
-    <t>已到库的详情？</t>
   </si>
   <si>
     <t>备注栏改成文本域</t>
@@ -1236,10 +1245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1315,22 +1324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,6 +1348,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1383,8 +1384,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,15 +1445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,36 +1462,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,13 +1501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,25 +1525,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,13 +1591,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,37 +1609,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,13 +1645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,37 +1657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,6 +1679,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1686,26 +1695,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1728,8 +1737,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1748,41 +1792,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1791,10 +1800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,137 +1812,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,85 +1953,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2241,7 +2247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14020165" y="7915275"/>
+          <a:off x="14020165" y="8086725"/>
           <a:ext cx="791210" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2283,7 +2289,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12532360" y="8582025"/>
+          <a:off x="12532360" y="8753475"/>
           <a:ext cx="1092835" cy="142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2325,7 +2331,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13999210" y="8582025"/>
+          <a:off x="13999210" y="8753475"/>
           <a:ext cx="878840" cy="128270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2367,7 +2373,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13762990" y="10963275"/>
+          <a:off x="13762990" y="11306175"/>
           <a:ext cx="1115695" cy="162560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2409,7 +2415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14171295" y="11677650"/>
+          <a:off x="14171295" y="12020550"/>
           <a:ext cx="697865" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2451,7 +2457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116050" y="12506325"/>
+          <a:off x="14116050" y="12849225"/>
           <a:ext cx="810260" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2493,7 +2499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="13392150"/>
+          <a:off x="3448050" y="13735050"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2535,7 +2541,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13858240" y="14258290"/>
+          <a:off x="13858240" y="14601190"/>
           <a:ext cx="973455" cy="157480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2577,7 +2583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153275" y="15973425"/>
+          <a:off x="7153275" y="16316325"/>
           <a:ext cx="810260" cy="133985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2619,7 +2625,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13267690" y="16992600"/>
+          <a:off x="13267690" y="17335500"/>
           <a:ext cx="1524635" cy="153670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2661,7 +2667,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13429615" y="17564100"/>
+          <a:off x="13429615" y="17907000"/>
           <a:ext cx="524510" cy="220345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2703,7 +2709,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14030325" y="17564100"/>
+          <a:off x="14030325" y="17907000"/>
           <a:ext cx="361950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2745,7 +2751,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14486890" y="17554575"/>
+          <a:off x="14486890" y="17897475"/>
           <a:ext cx="342900" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2787,7 +2793,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13687425" y="19030950"/>
+          <a:off x="13687425" y="19373850"/>
           <a:ext cx="1028700" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2829,7 +2835,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13801725" y="20050125"/>
+          <a:off x="13801725" y="20393025"/>
           <a:ext cx="971550" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2871,7 +2877,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14191615" y="21088350"/>
+          <a:off x="14191615" y="21431250"/>
           <a:ext cx="1341120" cy="153670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2913,7 +2919,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14124305" y="22479000"/>
+          <a:off x="14124305" y="22993350"/>
           <a:ext cx="725170" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2955,7 +2961,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13553440" y="22479000"/>
+          <a:off x="13553440" y="22993350"/>
           <a:ext cx="476885" cy="143510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2997,7 +3003,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14137640" y="25555575"/>
+          <a:off x="14137640" y="26412825"/>
           <a:ext cx="702310" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3039,7 +3045,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="13392150"/>
+          <a:off x="3448050" y="13735050"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3081,7 +3087,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13961745" y="27260550"/>
+          <a:off x="13961745" y="28117800"/>
           <a:ext cx="621030" cy="163830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3123,7 +3129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13702030" y="28642310"/>
+          <a:off x="13702030" y="29499560"/>
           <a:ext cx="986155" cy="141605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3165,7 +3171,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13933805" y="30022165"/>
+          <a:off x="13933805" y="30879415"/>
           <a:ext cx="934720" cy="154305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3207,7 +3213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14425295" y="30898465"/>
+          <a:off x="14425295" y="31755715"/>
           <a:ext cx="367030" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3249,7 +3255,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13660755" y="30889575"/>
+          <a:off x="13660755" y="31746825"/>
           <a:ext cx="541020" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3291,7 +3297,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116685" y="27784425"/>
+          <a:off x="14116685" y="28641675"/>
           <a:ext cx="761365" cy="147955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3333,7 +3339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14163675" y="31394400"/>
+          <a:off x="14163675" y="32251650"/>
           <a:ext cx="600075" cy="147955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3375,7 +3381,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11553825" y="26393775"/>
+          <a:off x="11553825" y="27251025"/>
           <a:ext cx="752475" cy="38735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3417,7 +3423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14135100" y="26250900"/>
+          <a:off x="14135100" y="27108150"/>
           <a:ext cx="685800" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3459,7 +3465,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915265" y="26403300"/>
+          <a:off x="12915265" y="27260550"/>
           <a:ext cx="628015" cy="220345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3501,7 +3507,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10714990" y="31746825"/>
+          <a:off x="10714990" y="32604075"/>
           <a:ext cx="1132205" cy="161290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3543,7 +3549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7058025" y="32918400"/>
+          <a:off x="7058025" y="33775650"/>
           <a:ext cx="2088515" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3585,7 +3591,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9117965" y="32956500"/>
+          <a:off x="9117965" y="33813750"/>
           <a:ext cx="920750" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3627,7 +3633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10153015" y="32927925"/>
+          <a:off x="10153015" y="33785175"/>
           <a:ext cx="589280" cy="141605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3669,7 +3675,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10821670" y="32918400"/>
+          <a:off x="10821670" y="33775650"/>
           <a:ext cx="730250" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3711,7 +3717,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11823065" y="34470975"/>
+          <a:off x="11823065" y="35328225"/>
           <a:ext cx="681355" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3753,7 +3759,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687050" y="35318700"/>
+          <a:off x="10687050" y="36175950"/>
           <a:ext cx="361950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3795,7 +3801,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13995400" y="36031805"/>
+          <a:off x="13995400" y="36889055"/>
           <a:ext cx="863600" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3837,7 +3843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14199870" y="36347400"/>
+          <a:off x="14199870" y="37204650"/>
           <a:ext cx="668655" cy="191135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3879,7 +3885,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13748385" y="37233225"/>
+          <a:off x="13748385" y="38090475"/>
           <a:ext cx="1024890" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3921,7 +3927,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067165" y="38280975"/>
+          <a:off x="9067165" y="39309675"/>
           <a:ext cx="552450" cy="123190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3963,7 +3969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13077190" y="39852600"/>
+          <a:off x="13077190" y="40881300"/>
           <a:ext cx="1713865" cy="86360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4005,7 +4011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943340" y="40338375"/>
+          <a:off x="8943340" y="41881425"/>
           <a:ext cx="1315085" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4047,7 +4053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="40519350"/>
+          <a:off x="8162925" y="42062400"/>
           <a:ext cx="0" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4089,7 +4095,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10258425" y="40509825"/>
+          <a:off x="10258425" y="42052875"/>
           <a:ext cx="0" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4131,7 +4137,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13706475" y="40490775"/>
+          <a:off x="13706475" y="42033825"/>
           <a:ext cx="838200" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4173,7 +4179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13820775" y="40833675"/>
+          <a:off x="13820775" y="42376725"/>
           <a:ext cx="542925" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4215,7 +4221,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13943330" y="41328975"/>
+          <a:off x="13943330" y="42872025"/>
           <a:ext cx="772795" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4257,7 +4263,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13935075" y="41700450"/>
+          <a:off x="13935075" y="43414950"/>
           <a:ext cx="761365" cy="153035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4299,7 +4305,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10290175" y="41871900"/>
+          <a:off x="10290175" y="43586400"/>
           <a:ext cx="635000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4337,7 +4343,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11929110" y="41871900"/>
+          <a:off x="11929110" y="43586400"/>
           <a:ext cx="358140" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4379,7 +4385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14197330" y="42386250"/>
+          <a:off x="14197330" y="44100750"/>
           <a:ext cx="537845" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4421,7 +4427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13683615" y="42719625"/>
+          <a:off x="13683615" y="44434125"/>
           <a:ext cx="422910" cy="137795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4463,7 +4469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14263370" y="42738040"/>
+          <a:off x="14263370" y="44452540"/>
           <a:ext cx="538480" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4505,7 +4511,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13554075" y="42910125"/>
+          <a:off x="13554075" y="44624625"/>
           <a:ext cx="1302385" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4783,11 +4789,11 @@
   <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B213" sqref="B213"/>
+      <selection pane="bottomRight" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4810,2790 +4816,3186 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>8.15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="7">
         <v>8.8</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="7">
         <v>8.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4">
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="7">
         <v>8.8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="4">
+    <row r="33" spans="1:8">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="7">
         <v>8.15</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4">
+    <row r="35" ht="27" spans="1:8">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G35" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G36" t="s">
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G50" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="7">
         <v>8.15</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G51" t="s">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="7">
         <v>8.15</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4">
+    <row r="52" ht="27" spans="1:8">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:5">
-      <c r="A53" s="4">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" ht="40.5" spans="1:8">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4">
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4">
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="4">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="4">
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4">
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" t="s">
+      <c r="C61" s="11"/>
+      <c r="D61" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="4">
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="4">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="7">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="4">
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" t="s">
+      <c r="C64" s="11"/>
+      <c r="D64" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="7">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="4">
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="7">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="12">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="7">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="4">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="7">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="4">
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" t="s">
+      <c r="C68" s="11"/>
+      <c r="D68" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="7">
         <v>8.16</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="4">
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="4">
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" t="s">
+      <c r="C70" s="11"/>
+      <c r="D70" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="4">
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="13">
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="17">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="16">
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="4">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" t="s">
+      <c r="C74" s="11"/>
+      <c r="D74" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="4">
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="11"/>
+      <c r="D75" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="4">
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="12">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="11"/>
+      <c r="D77" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="18">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="12">
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" t="s">
+      <c r="C79" s="11"/>
+      <c r="D79" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="4">
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" t="s">
+      <c r="C80" s="11"/>
+      <c r="D80" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="81" ht="27" spans="1:5">
-      <c r="A81" s="4">
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" ht="27" spans="1:8">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="19" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="4">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="4">
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="4">
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="4">
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" t="s">
+      <c r="C85" s="11"/>
+      <c r="D85" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" t="s">
+      <c r="C86" s="11"/>
+      <c r="D86" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="4">
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" t="s">
+      <c r="C87" s="11"/>
+      <c r="D87" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="4">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="4">
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" t="s">
+      <c r="C89" s="11"/>
+      <c r="D89" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="4">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" t="s">
+      <c r="C90" s="11"/>
+      <c r="D90" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="4">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="E91">
+      <c r="C91" s="11"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="4">
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" t="s">
+      <c r="C92" s="11"/>
+      <c r="D92" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="4">
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="4">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="4">
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" t="s">
+      <c r="C95" s="11"/>
+      <c r="D95" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="4">
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" t="s">
+      <c r="C96" s="11"/>
+      <c r="D96" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" t="s">
+      <c r="C97" s="11"/>
+      <c r="D97" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="4">
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" t="s">
+      <c r="C98" s="11"/>
+      <c r="D98" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="99" ht="40.5" spans="1:5">
-      <c r="A99" s="4">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" ht="40.5" spans="1:8">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="4">
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" t="s">
+      <c r="C100" s="11"/>
+      <c r="D100" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" t="s">
+      <c r="C101" s="6"/>
+      <c r="D101" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" t="s">
+      <c r="C102" s="11"/>
+      <c r="D102" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="104" ht="27" spans="1:5">
-      <c r="A104" s="4">
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" ht="27" spans="1:8">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="19" t="s">
+      <c r="C104" s="11"/>
+      <c r="D104" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" t="s">
+      <c r="C107" s="11"/>
+      <c r="D107" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="4">
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="4">
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="4">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4">
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="7">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="4">
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="9" t="s">
         <v>184</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" t="s">
+      <c r="D112" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="4">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="8"/>
-      <c r="D113" t="s">
+      <c r="C113" s="10"/>
+      <c r="D113" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="4">
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="4">
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="4">
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" t="s">
+      <c r="C116" s="11"/>
+      <c r="D116" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="4">
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="4">
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D118" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="4">
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" ht="27" spans="1:8">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="4">
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" t="s">
+      <c r="C120" s="11"/>
+      <c r="D120" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="4">
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" t="s">
+      <c r="C121" s="11"/>
+      <c r="D121" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="122" ht="27" spans="1:5">
-      <c r="A122" s="4">
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" ht="27" spans="1:8">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="4">
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="5"/>
-      <c r="D123" t="s">
+      <c r="C123" s="6"/>
+      <c r="D123" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="4">
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="4">
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="4">
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" t="s">
+      <c r="C126" s="11"/>
+      <c r="D126" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="4">
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" t="s">
+      <c r="C127" s="11"/>
+      <c r="D127" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="4">
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" t="s">
+      <c r="C128" s="11"/>
+      <c r="D128" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="4">
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" t="s">
+      <c r="C129" s="11"/>
+      <c r="D129" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="4">
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="4">
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" t="s">
+      <c r="C131" s="11"/>
+      <c r="D131" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="4">
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" t="s">
+      <c r="C132" s="11"/>
+      <c r="D132" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="4">
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" ht="27" spans="1:8">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4">
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="4">
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" ht="27" spans="1:8">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="4">
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="4">
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="4">
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="4">
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" t="s">
+      <c r="C139" s="11"/>
+      <c r="D139" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="4">
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="4">
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E141">
+      <c r="D141" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="4">
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" s="11"/>
+      <c r="D142" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E142" s="7">
+        <v>8.18</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="5">
+        <v>142</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" t="s">
-        <v>226</v>
-      </c>
-      <c r="E142">
+      <c r="C143" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E143" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="4">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" t="s">
-        <v>229</v>
-      </c>
-      <c r="E143">
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="5">
+        <v>143</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" s="11"/>
+      <c r="D144" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E144" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="4">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" t="s">
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="5">
+        <v>144</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E144">
+      <c r="C145" s="11"/>
+      <c r="D145" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E145" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="4">
-        <v>144</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" t="s">
-        <v>211</v>
-      </c>
-      <c r="E145">
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="5">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="11"/>
+      <c r="D146" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E146" s="7">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="4">
-        <v>145</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" t="s">
-        <v>233</v>
-      </c>
-      <c r="E146">
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="4">
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>184</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D147" t="s">
         <v>235</v>
       </c>
-      <c r="E147" t="s">
+      <c r="D147" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="4">
+      <c r="E147" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C148" s="21"/>
-      <c r="D148" t="s">
+      <c r="D148" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E148" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="4">
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D149" t="s">
         <v>240</v>
       </c>
-      <c r="E149" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="4">
+      <c r="D149" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>150</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" t="s">
-        <v>241</v>
-      </c>
-      <c r="E150" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="4">
+      <c r="D150" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C151" s="21"/>
-      <c r="D151" t="s">
-        <v>243</v>
-      </c>
-      <c r="E151" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="152" ht="27" spans="1:5">
-      <c r="A152" s="4">
+      <c r="D151" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" ht="27" spans="1:8">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C152" s="21"/>
-      <c r="D152" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E152" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="153" ht="27" spans="1:5">
-      <c r="A153" s="4">
+      <c r="D152" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" ht="27" spans="1:8">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>245</v>
+      <c r="B153" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C153" s="21"/>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="5">
+        <v>153</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E153" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="4">
-        <v>153</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="C154" s="21"/>
-      <c r="D154" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="E154" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="4">
+      <c r="D154" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>245</v>
+      <c r="B155" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C155" s="21"/>
-      <c r="D155" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="E155" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="4">
+      <c r="D155" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>245</v>
+      <c r="B156" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C156" s="21"/>
-      <c r="D156" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E156" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="4">
+      <c r="D156" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>245</v>
+      <c r="B157" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C157" s="21"/>
-      <c r="D157" t="s">
-        <v>250</v>
-      </c>
-      <c r="E157" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" ht="27" spans="1:5">
-      <c r="A158" s="4">
+      <c r="D157" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" ht="27" spans="1:8">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C158" s="21"/>
-      <c r="D158" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E158" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="4">
+      <c r="D158" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>245</v>
+      <c r="B159" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="C159" s="21"/>
-      <c r="D159" t="s">
-        <v>252</v>
-      </c>
-      <c r="E159" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="4">
+      <c r="D159" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C160" s="21"/>
-      <c r="D160" t="s">
-        <v>253</v>
-      </c>
-      <c r="E160" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="4">
+      <c r="D160" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C161" s="21"/>
-      <c r="D161" t="s">
-        <v>255</v>
-      </c>
-      <c r="E161" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4">
+      <c r="D161" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
       <c r="B162" s="23" t="s">
         <v>181</v>
       </c>
       <c r="C162" s="21"/>
-      <c r="D162" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="4">
+      <c r="D162" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
       <c r="B163" s="23" t="s">
@@ -7602,461 +8004,580 @@
       <c r="C163" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D163" t="s">
-        <v>257</v>
-      </c>
-      <c r="E163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="4">
+      <c r="D163" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C164" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E164" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" ht="27" spans="1:5">
-      <c r="A165" s="4">
+      <c r="D164" s="7"/>
+      <c r="E164" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" ht="27" spans="1:8">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C165" s="21"/>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" ht="67.5" spans="1:8">
+      <c r="A166" s="5">
+        <v>165</v>
+      </c>
+      <c r="B166" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E165" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" ht="67.5" spans="1:5">
-      <c r="A166" s="4">
-        <v>165</v>
-      </c>
-      <c r="B166" s="23" t="s">
-        <v>259</v>
-      </c>
       <c r="C166" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D166" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E166" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="4">
+      <c r="D166" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C167" s="21"/>
-      <c r="D167" t="s">
-        <v>263</v>
-      </c>
-      <c r="E167" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="4">
+      <c r="D167" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D168" t="s">
         <v>240</v>
       </c>
-      <c r="E168" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="4">
+      <c r="D168" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E169" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="170" ht="27" spans="1:5">
-      <c r="A170" s="4">
+        <v>268</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" ht="27" spans="1:8">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D170" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E170" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="4">
+      <c r="D170" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="D171" t="s">
         <v>272</v>
       </c>
-      <c r="E171" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="4">
+      <c r="D171" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="D172" t="s">
         <v>275</v>
       </c>
-      <c r="E172" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="4">
+      <c r="D172" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C173" s="21"/>
-      <c r="D173" t="s">
-        <v>276</v>
-      </c>
-      <c r="E173" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="4">
+      <c r="D173" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D174" t="s">
         <v>279</v>
       </c>
-      <c r="E174" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="4">
+      <c r="D174" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C175" s="21"/>
-      <c r="D175" t="s">
-        <v>280</v>
-      </c>
-      <c r="E175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="4">
+      <c r="D175" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C176" s="21"/>
-      <c r="D176" t="s">
-        <v>281</v>
-      </c>
-      <c r="E176" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="4">
+      <c r="D176" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C177" s="21"/>
-      <c r="E177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="4">
+      <c r="D177" s="7"/>
+      <c r="E177" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="4">
+        <v>284</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="4">
+        <v>286</v>
+      </c>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="4">
+        <v>288</v>
+      </c>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C181" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="26">
+        <v>181</v>
+      </c>
+      <c r="B182" s="24" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2">
-        <v>181</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>288</v>
-      </c>
       <c r="C182" s="24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2">
+        <v>291</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="26">
         <v>182</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C183" s="24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2">
+        <v>293</v>
+      </c>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="26">
         <v>183</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="26">
         <v>184</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="26">
         <v>185</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="24" t="s">
         <v>216</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="2">
+        <v>296</v>
+      </c>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="26">
         <v>186</v>
       </c>
       <c r="B187" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D187" t="s">
-        <v>295</v>
-      </c>
-      <c r="E187" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="2">
+      <c r="C187" s="7"/>
+      <c r="D187" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="26">
         <v>187</v>
       </c>
       <c r="B188" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D188" t="s">
-        <v>297</v>
-      </c>
-      <c r="E188" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="2">
+      <c r="C188" s="7"/>
+      <c r="D188" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="26">
         <v>188</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C189" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D189" t="s">
-        <v>299</v>
-      </c>
-      <c r="E189" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="190" ht="54" spans="1:5">
-      <c r="A190" s="2">
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" ht="54" spans="1:8">
+      <c r="A190" s="26">
         <v>189</v>
       </c>
       <c r="B190" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C190" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="D190" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E190" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D190" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="E190" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="2">
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="26">
         <v>190</v>
       </c>
-      <c r="B191" s="25" t="s">
-        <v>258</v>
+      <c r="B191" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C191" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E191" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D191" t="s">
-        <v>302</v>
-      </c>
-      <c r="E191" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="27">
         <v>191</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D192" t="s">
-        <v>303</v>
-      </c>
-      <c r="E192" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="2">
+        <v>260</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="26">
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D193" t="s">
-        <v>306</v>
-      </c>
-      <c r="E193" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="2">
+        <v>307</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="26">
         <v>193</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D194" t="s">
-        <v>308</v>
-      </c>
-      <c r="E194" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="2">
+        <v>309</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="26">
         <v>194</v>
       </c>
       <c r="B195" s="25" t="s">
@@ -8065,651 +8586,883 @@
       <c r="C195" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D195" t="s">
-        <v>309</v>
-      </c>
-      <c r="E195" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="2">
+      <c r="D195" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="26">
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D196" t="s">
-        <v>311</v>
-      </c>
-      <c r="E196" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="2">
+      <c r="D196" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="26">
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="D197" t="s">
         <v>312</v>
       </c>
-      <c r="E197" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="2">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="26">
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="D198" t="s">
-        <v>313</v>
-      </c>
-      <c r="E198" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="2">
+        <v>312</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="26">
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D199" t="s">
-        <v>315</v>
-      </c>
-      <c r="E199" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="2">
+        <v>316</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" ht="27" spans="1:8">
+      <c r="A200" s="26">
         <v>199</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>219</v>
       </c>
       <c r="C200" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" ht="14.25" spans="1:8">
+      <c r="A201" s="26">
+        <v>200</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="26">
+        <v>201</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="26">
+        <v>202</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="26">
+        <v>203</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="26">
+        <v>204</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="26">
+        <v>205</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="26">
+        <v>206</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="26">
+        <v>207</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="26">
+        <v>208</v>
+      </c>
+      <c r="B209" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="E200" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="201" ht="14.25" spans="1:5">
-      <c r="A201" s="2">
-        <v>200</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D201" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="E201" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="2">
-        <v>201</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="C209" s="7"/>
+      <c r="D209" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E209" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E202" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="2">
-        <v>202</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="D203" t="s">
-        <v>322</v>
-      </c>
-      <c r="E203" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="2">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>323</v>
-      </c>
-      <c r="D204" t="s">
-        <v>324</v>
-      </c>
-      <c r="E204" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="2">
-        <v>204</v>
-      </c>
-      <c r="B205" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D205" t="s">
-        <v>326</v>
-      </c>
-      <c r="E205" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="2">
-        <v>205</v>
-      </c>
-      <c r="B206" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="D206" t="s">
-        <v>328</v>
-      </c>
-      <c r="E206" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="2">
-        <v>206</v>
-      </c>
-      <c r="B207" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="7"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="26">
+        <v>209</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
+      <c r="H210" s="7"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="26">
+        <v>210</v>
+      </c>
+      <c r="B211" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="26">
+        <v>211</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="26">
+        <v>212</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" ht="54" spans="1:8">
+      <c r="A214" s="26">
+        <v>213</v>
+      </c>
+      <c r="B214" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C214" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="26">
+        <v>214</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="26">
+        <v>215</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="26">
+        <v>216</v>
+      </c>
+      <c r="B217" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C217" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="E207" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="2">
-        <v>207</v>
-      </c>
-      <c r="B208" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="D208" t="s">
-        <v>333</v>
-      </c>
-      <c r="E208" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="2">
-        <v>208</v>
-      </c>
-      <c r="B209" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D209" t="s">
-        <v>334</v>
-      </c>
-      <c r="E209" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="2">
-        <v>209</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D210" t="s">
-        <v>336</v>
-      </c>
-      <c r="E210" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="2">
-        <v>210</v>
-      </c>
-      <c r="B211" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D211" t="s">
-        <v>44</v>
-      </c>
-      <c r="E211" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="2">
-        <v>211</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="D212" t="s">
-        <v>339</v>
-      </c>
-      <c r="E212" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="2">
-        <v>212</v>
-      </c>
-      <c r="B213" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="C213" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="D213" t="s">
-        <v>342</v>
-      </c>
-      <c r="E213" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="2">
-        <v>213</v>
-      </c>
-      <c r="B214" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="C214" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="D214" t="s">
-        <v>345</v>
-      </c>
-      <c r="E214" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="2">
-        <v>214</v>
-      </c>
-      <c r="B215" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="D215" t="s">
-        <v>347</v>
-      </c>
-      <c r="E215" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="2">
-        <v>215</v>
-      </c>
-      <c r="B216" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="D216" t="s">
-        <v>348</v>
-      </c>
-      <c r="E216" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="2">
-        <v>216</v>
-      </c>
-      <c r="B217" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="E217" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="2">
+      <c r="D217" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="26">
         <v>217</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D218" t="s">
         <v>353</v>
       </c>
-      <c r="E218" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="219" ht="27" spans="1:5">
-      <c r="A219" s="2">
+      <c r="D218" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7"/>
+    </row>
+    <row r="219" ht="27" spans="1:8">
+      <c r="A219" s="26">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>354</v>
-      </c>
-      <c r="D219" s="19" t="s">
+      <c r="B219" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="E219" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="2">
+      <c r="C219" s="7"/>
+      <c r="D219" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="26">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>354</v>
-      </c>
-      <c r="D220" t="s">
-        <v>356</v>
-      </c>
-      <c r="E220" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="2">
+      <c r="B220" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="26">
         <v>220</v>
       </c>
-      <c r="B221" s="25" t="s">
-        <v>357</v>
+      <c r="B221" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="D221" t="s">
-        <v>359</v>
-      </c>
-      <c r="E221" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="2">
+        <v>361</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+    </row>
+    <row r="222" ht="27" spans="1:8">
+      <c r="A222" s="26">
         <v>221</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="D222" t="s">
-        <v>361</v>
-      </c>
-      <c r="E222" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="2">
+        <v>363</v>
+      </c>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="7"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="26">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="D223" t="s">
-        <v>362</v>
-      </c>
-      <c r="E223" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="2">
+      <c r="C223" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="26">
         <v>223</v>
       </c>
       <c r="B224" s="24" t="s">
         <v>219</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="E224" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="225" ht="40.5" spans="1:5">
-      <c r="A225" s="2">
+        <v>368</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7"/>
+    </row>
+    <row r="225" ht="40.5" spans="1:8">
+      <c r="A225" s="26">
         <v>224</v>
       </c>
-      <c r="B225" s="25" t="s">
+      <c r="B225" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="D225" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="E225" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="2">
+      <c r="C225" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="26">
         <v>225</v>
       </c>
       <c r="B226" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="D226" t="s">
-        <v>367</v>
-      </c>
-      <c r="E226" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="2">
+      <c r="C226" s="7"/>
+      <c r="D226" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="26">
         <v>226</v>
       </c>
-      <c r="B227" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="C227" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D227" t="s">
-        <v>369</v>
-      </c>
-      <c r="E227" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="2">
+      <c r="B227" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="7"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="26">
         <v>227</v>
       </c>
       <c r="B228" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D228" t="s">
-        <v>370</v>
-      </c>
-      <c r="E228" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="2">
+      <c r="C228" s="7"/>
+      <c r="D228" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="26">
         <v>228</v>
       </c>
-      <c r="B229" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C229" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D229" t="s">
-        <v>372</v>
-      </c>
-      <c r="E229" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="2">
+      <c r="B229" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C229" s="25"/>
+      <c r="D229" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="7"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="26">
         <v>229</v>
       </c>
-      <c r="B230" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="C230" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="D230" t="s">
-        <v>374</v>
-      </c>
-      <c r="E230" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="2">
+      <c r="B230" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C230" s="25"/>
+      <c r="D230" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="26">
         <v>230</v>
       </c>
-      <c r="E231" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="2">
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="7"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="26">
         <v>231</v>
       </c>
-      <c r="E232" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="2">
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="26">
         <v>232</v>
       </c>
-      <c r="E233" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="2">
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="26">
         <v>233</v>
       </c>
-      <c r="E234" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="2">
+      <c r="B234" s="7"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="26">
         <v>234</v>
       </c>
-      <c r="E235" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="2">
+      <c r="B235" s="7"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="26">
         <v>235</v>
       </c>
-      <c r="E236" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="2">
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="26">
         <v>236</v>
       </c>
-      <c r="E237" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="2">
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="26">
         <v>237</v>
       </c>
-      <c r="E238" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="2">
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="26">
         <v>238</v>
       </c>
-      <c r="E239" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="2">
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="26">
         <v>239</v>
       </c>
-      <c r="E240" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="2">
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="26">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="2">
+      <c r="B241" s="7"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="26">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="2">
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="26">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="2">
+      <c r="B243" s="7"/>
+      <c r="C243" s="7"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="26">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="2">
+      <c r="B244" s="7"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="26">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="2">
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
+      <c r="G245" s="7"/>
+      <c r="H245" s="7"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="26">
         <v>245</v>
       </c>
+      <c r="B246" s="7"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
+      <c r="H246" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H246">

--- a/相关/测试记录/20180822.xlsx
+++ b/相关/测试记录/20180822.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377">
   <si>
     <t>序号</t>
   </si>
@@ -876,9 +876,6 @@
     <t>包裹-全部-编辑√</t>
   </si>
   <si>
-    <t>包裹</t>
-  </si>
-  <si>
     <t>接口返回数值错误</t>
   </si>
   <si>
@@ -927,13 +924,13 @@
     <t>转运仓库默认为包裹预报里提交的仓库名</t>
   </si>
   <si>
-    <t>批量在线下单 导入接口</t>
+    <t>批量在线下单 导入接口√</t>
   </si>
   <si>
     <t>1.缺少文件名称字段 2.文档中应说明文件类型</t>
   </si>
   <si>
-    <t>异常件点击运单id跳转至运单详情</t>
+    <t>异常件点击运单id跳转至运单详情√</t>
   </si>
   <si>
     <t>需要在异常件查询接口中返回可查询运单详情的id字段</t>
@@ -1324,6 +1321,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1332,7 +1351,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,32 +1387,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1384,31 +1401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,17 +1425,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1448,6 +1437,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1459,9 +1456,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,13 +1498,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,19 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1543,31 +1612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1579,31 +1642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,43 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,25 +1672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,17 +1692,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1736,39 +1742,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1792,6 +1765,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1800,10 +1797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1812,133 +1809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4789,11 +4786,11 @@
   <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C182" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B223" sqref="B223"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8113,13 +8110,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C169" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="D169" s="23" t="s">
         <v>267</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>237</v>
@@ -8133,13 +8130,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="C170" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="D170" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>237</v>
@@ -8156,10 +8153,10 @@
         <v>187</v>
       </c>
       <c r="C171" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D171" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>237</v>
@@ -8173,13 +8170,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C172" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="D172" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>237</v>
@@ -8197,7 +8194,7 @@
       </c>
       <c r="C173" s="21"/>
       <c r="D173" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>237</v>
@@ -8211,13 +8208,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C174" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="D174" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>237</v>
@@ -8235,7 +8232,7 @@
       </c>
       <c r="C175" s="21"/>
       <c r="D175" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>237</v>
@@ -8249,11 +8246,11 @@
         <v>175</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C176" s="21"/>
       <c r="D176" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>237</v>
@@ -8283,10 +8280,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="24" t="s">
         <v>283</v>
-      </c>
-      <c r="C178" s="24" t="s">
-        <v>284</v>
       </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -8299,10 +8296,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>285</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>286</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -8315,10 +8312,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C180" s="24" t="s">
         <v>287</v>
-      </c>
-      <c r="C180" s="24" t="s">
-        <v>288</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -8331,10 +8328,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C181" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="C181" s="24" t="s">
-        <v>290</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -8347,10 +8344,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -8363,10 +8360,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="C183" s="24" t="s">
-        <v>293</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -8379,7 +8376,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>61</v>
@@ -8395,7 +8392,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C185" s="25" t="s">
         <v>61</v>
@@ -8414,7 +8411,7 @@
         <v>216</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -8431,10 +8428,10 @@
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
@@ -8449,10 +8446,10 @@
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
@@ -8466,13 +8463,13 @@
         <v>259</v>
       </c>
       <c r="C189" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D189" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="E189" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
@@ -8483,16 +8480,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D190" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C190" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="E190" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
@@ -8506,13 +8503,13 @@
         <v>181</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F191" s="7"/>
       <c r="G191" s="7"/>
@@ -8527,10 +8524,10 @@
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
@@ -8541,16 +8538,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C193" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="D193" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D193" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="E193" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
@@ -8561,16 +8558,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C194" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D194" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="E194" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
@@ -8587,10 +8584,10 @@
         <v>130</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
@@ -8601,16 +8598,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
@@ -8621,14 +8618,14 @@
         <v>196</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
@@ -8639,14 +8636,14 @@
         <v>197</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
@@ -8657,14 +8654,14 @@
         <v>198</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
@@ -8678,11 +8675,11 @@
         <v>219</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
@@ -8697,10 +8694,10 @@
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="E201" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="E201" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
@@ -8711,14 +8708,14 @@
         <v>201</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
@@ -8729,14 +8726,14 @@
         <v>202</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C203" s="7"/>
       <c r="D203" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
@@ -8747,14 +8744,14 @@
         <v>203</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C204" s="7"/>
       <c r="D204" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
@@ -8765,14 +8762,14 @@
         <v>204</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C205" s="7"/>
       <c r="D205" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -8783,14 +8780,14 @@
         <v>205</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C206" s="7"/>
       <c r="D206" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
@@ -8801,16 +8798,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C207" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="D207" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D207" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="E207" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
@@ -8821,14 +8818,14 @@
         <v>207</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
@@ -8839,14 +8836,14 @@
         <v>208</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
@@ -8857,14 +8854,14 @@
         <v>209</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
@@ -8875,16 +8872,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C211" s="24" t="s">
         <v>338</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>339</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
@@ -8895,14 +8892,14 @@
         <v>211</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C212" s="7"/>
       <c r="D212" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
@@ -8913,16 +8910,16 @@
         <v>212</v>
       </c>
       <c r="B213" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C213" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C213" s="23" t="s">
+      <c r="D213" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D213" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="E213" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
@@ -8933,16 +8930,16 @@
         <v>213</v>
       </c>
       <c r="B214" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C214" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="D214" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D214" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="E214" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
@@ -8953,14 +8950,14 @@
         <v>214</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C215" s="7"/>
       <c r="D215" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
@@ -8971,14 +8968,14 @@
         <v>215</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C216" s="7"/>
       <c r="D216" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
@@ -8989,16 +8986,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C217" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D217" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C217" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="D217" s="13" t="s">
-        <v>351</v>
-      </c>
       <c r="E217" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
@@ -9009,16 +9006,16 @@
         <v>217</v>
       </c>
       <c r="B218" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C218" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="D218" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D218" s="7" t="s">
-        <v>354</v>
-      </c>
       <c r="E218" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
@@ -9029,14 +9026,14 @@
         <v>218</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C219" s="7"/>
       <c r="D219" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
@@ -9047,16 +9044,16 @@
         <v>219</v>
       </c>
       <c r="B220" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C220" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="C220" s="24" t="s">
+      <c r="D220" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D220" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="E220" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
@@ -9067,16 +9064,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C221" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C221" s="25" t="s">
+      <c r="D221" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D221" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="E221" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
@@ -9087,14 +9084,14 @@
         <v>221</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
@@ -9108,13 +9105,13 @@
         <v>219</v>
       </c>
       <c r="C223" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D223" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="D223" s="7" t="s">
-        <v>366</v>
-      </c>
       <c r="E223" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
@@ -9128,13 +9125,13 @@
         <v>219</v>
       </c>
       <c r="C224" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D224" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D224" s="21" t="s">
-        <v>368</v>
-      </c>
       <c r="E224" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
@@ -9148,13 +9145,13 @@
         <v>219</v>
       </c>
       <c r="C225" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D225" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="E225" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
@@ -9169,10 +9166,10 @@
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
@@ -9183,16 +9180,16 @@
         <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C227" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D227" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C227" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="E227" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="7"/>
@@ -9207,10 +9204,10 @@
       </c>
       <c r="C228" s="7"/>
       <c r="D228" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F228" s="7"/>
       <c r="G228" s="7"/>
@@ -9221,14 +9218,14 @@
         <v>228</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C229" s="25"/>
       <c r="D229" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="7"/>
@@ -9239,14 +9236,14 @@
         <v>229</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C230" s="25"/>
       <c r="D230" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F230" s="7"/>
       <c r="G230" s="7"/>
@@ -9260,7 +9257,7 @@
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="7"/>
@@ -9274,7 +9271,7 @@
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
@@ -9288,7 +9285,7 @@
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
@@ -9302,7 +9299,7 @@
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F234" s="7"/>
       <c r="G234" s="7"/>
@@ -9316,7 +9313,7 @@
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F235" s="7"/>
       <c r="G235" s="7"/>
@@ -9330,7 +9327,7 @@
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F236" s="7"/>
       <c r="G236" s="7"/>
@@ -9344,7 +9341,7 @@
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F237" s="7"/>
       <c r="G237" s="7"/>
@@ -9358,7 +9355,7 @@
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F238" s="7"/>
       <c r="G238" s="7"/>
@@ -9372,7 +9369,7 @@
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
@@ -9386,7 +9383,7 @@
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F240" s="7"/>
       <c r="G240" s="7"/>
